--- a/VTU EV Internship Offer Letters/jan_offer_released_applicants_8.xlsx
+++ b/VTU EV Internship Offer Letters/jan_offer_released_applicants_8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAF11B3-0066-4CBD-AD28-6D70A99BC96A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28103DB7-670C-42BA-BAE8-28F847D43D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="587">
   <si>
     <t>Name</t>
   </si>
@@ -1772,13 +1772,22 @@
   </si>
   <si>
     <t>G.Madegowda Inst. of Tech., Mandya</t>
+  </si>
+  <si>
+    <t>SAICHARAN TEJ P N</t>
+  </si>
+  <si>
+    <t>tej18saicharan@gmail.com</t>
+  </si>
+  <si>
+    <t>Government Engineering College Ramanagara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1790,6 +1799,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1827,11 +1844,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2134,7 +2152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D9EECE-4D79-4736-B0F2-8CF711A8564C}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6027,6 +6045,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>584</v>
+      </c>
+      <c r="B170" t="s">
+        <v>585</v>
+      </c>
+      <c r="C170">
+        <v>7026773375</v>
+      </c>
+      <c r="D170" t="s">
+        <v>586</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F170" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
